--- a/docs/STAFF-DATA/013.xlsx
+++ b/docs/STAFF-DATA/013.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5231DE80-437D-4BDF-A9C8-0074E36796FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="145">
   <si>
     <t>Name</t>
   </si>
@@ -389,12 +388,78 @@
   </si>
   <si>
     <t>Assistant Professor III</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/u/0/open?usp=forms_web&amp;id=1zhflWBm35sv2732JdwQZN1rZ-bZvH254</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://scholar.google.com/citations?user=WPNgCKEAAAAJ</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/karthick-m-ap-iii-mechanical-86330a282/</t>
+  </si>
+  <si>
+    <t>Mr. M.KARTHICK</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/u/0/open?usp=forms_web&amp;id=1WphphCt7yyXF4bmVIrhxoG92ed_e2Mha</t>
+  </si>
+  <si>
+    <t>scholar.google.com/citations?hl=en&amp;pli=1&amp;authuser=3&amp;user=k0jG4AAAAJ</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/chezhian-r-664275146</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/u/0/open?usp=forms_web&amp;id=1Yz2iy4HuSim_mIfwJakZ5suGT_3jsLXS</t>
+  </si>
+  <si>
+    <t>ganapathysundaram@velammal.edu.in</t>
+  </si>
+  <si>
+    <t>Ganapathy Sundaram E</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Professor &amp; Head</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/u/0/open?usp=forms_web&amp;id=10mJQLBl0PMMOJTE7wZlVFtMpGlweqH57</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=PrLAIusAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>0000-0002-3284-9485</t>
+  </si>
+  <si>
+    <t>LIG-0308-2024</t>
+  </si>
+  <si>
+    <t>ganapathy-sundaram-esakkimuthu-787163204/?originalSubdomain=in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. E.Ganapathy Sundaram </t>
+  </si>
+  <si>
+    <t>VEC-013-04-204</t>
+  </si>
+  <si>
+    <t>VEC-013-04-198</t>
+  </si>
+  <si>
+    <t>VEC-013-04-202</t>
+  </si>
+  <si>
+    <t>VEC-013-01-203</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -453,12 +518,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -761,26 +827,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
-    <col min="5" max="5" width="0.21875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="72.21875" customWidth="1"/>
-    <col min="8" max="8" width="50.6640625" customWidth="1"/>
-    <col min="9" max="9" width="31.21875" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" customWidth="1"/>
+    <col min="5" max="5" width="0.1796875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="72.1796875" customWidth="1"/>
+    <col min="8" max="8" width="50.6328125" customWidth="1"/>
+    <col min="9" max="9" width="31.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -812,7 +878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -844,7 +910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -876,7 +942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -902,7 +968,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -931,7 +997,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -957,7 +1023,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -983,7 +1049,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -1009,7 +1075,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>108</v>
       </c>
@@ -1035,7 +1101,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>109</v>
       </c>
@@ -1067,7 +1133,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -1096,7 +1162,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -1116,7 +1182,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -1136,7 +1202,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -1156,7 +1222,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -1188,12 +1254,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>115</v>
       </c>
       <c r="B16" t="s">
         <v>117</v>
+      </c>
+      <c r="C16" t="s">
+        <v>130</v>
       </c>
       <c r="D16" t="s">
         <v>116</v>
@@ -1205,8 +1274,11 @@
       <c r="I16" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>119</v>
       </c>
@@ -1219,32 +1291,123 @@
       <c r="I17" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>121</v>
       </c>
       <c r="B18" t="s">
         <v>122</v>
       </c>
+      <c r="C18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" t="s">
+        <v>138</v>
+      </c>
+      <c r="I20" t="s">
+        <v>139</v>
+      </c>
+      <c r="J20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="E24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="J24" t="s">
+        <v>131</v>
+      </c>
+      <c r="K24" t="s">
+        <v>135</v>
+      </c>
+      <c r="L24" t="s">
+        <v>136</v>
+      </c>
+      <c r="N24" t="s">
+        <v>137</v>
+      </c>
+      <c r="O24" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>139</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{2D764CE7-B92E-4CD5-A7BA-B12A8F428D01}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{EEE7E9A3-4446-4054-AF87-5D643A305432}"/>
-    <hyperlink ref="H3" r:id="rId3" xr:uid="{F8F355BB-90E2-4E46-BBE4-691F8E5A73DC}"/>
-    <hyperlink ref="H11" r:id="rId4" xr:uid="{AE0CCF9F-4931-4061-AA42-69016B3AC85D}"/>
-    <hyperlink ref="G2" r:id="rId5" xr:uid="{E613C5B4-0CCC-489F-B5BC-EF1E139ABF8C}"/>
-    <hyperlink ref="G3" r:id="rId6" xr:uid="{34134804-CADE-4883-80F3-94789F225DA3}"/>
-    <hyperlink ref="G11" r:id="rId7" xr:uid="{6C703D3A-B556-46D5-8362-AA30CEA31992}"/>
-    <hyperlink ref="H5" r:id="rId8" xr:uid="{A298CE3E-5080-4D48-9ECC-B5768AAB4553}"/>
-    <hyperlink ref="H7" r:id="rId9" xr:uid="{86190B39-FCDC-496E-B451-347B1A110D10}"/>
-    <hyperlink ref="H6" r:id="rId10" xr:uid="{B84B9C39-AF76-4817-827B-802113AFD167}"/>
-    <hyperlink ref="H9" r:id="rId11" xr:uid="{012ED821-4743-418A-AAFF-218C6912B5F4}"/>
-    <hyperlink ref="G16" r:id="rId12" xr:uid="{B38ED99F-6CFA-4DA2-AECD-3D5DA598848C}"/>
-    <hyperlink ref="I16" r:id="rId13" xr:uid="{E7EF3DF1-0642-4BC9-8C2A-5623DE19BFDD}"/>
-    <hyperlink ref="D17" r:id="rId14" xr:uid="{E5B3BB8B-6FFC-4B46-80CD-7C3B1948B028}"/>
-    <hyperlink ref="I17" r:id="rId15" xr:uid="{71895D88-8324-48C1-8E04-3750481C1CCB}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="H3" r:id="rId3"/>
+    <hyperlink ref="H11" r:id="rId4"/>
+    <hyperlink ref="G2" r:id="rId5"/>
+    <hyperlink ref="G3" r:id="rId6"/>
+    <hyperlink ref="G11" r:id="rId7"/>
+    <hyperlink ref="H5" r:id="rId8"/>
+    <hyperlink ref="H7" r:id="rId9"/>
+    <hyperlink ref="H6" r:id="rId10"/>
+    <hyperlink ref="H9" r:id="rId11"/>
+    <hyperlink ref="G16" r:id="rId12"/>
+    <hyperlink ref="I16" r:id="rId13"/>
+    <hyperlink ref="D17" r:id="rId14"/>
+    <hyperlink ref="I17" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/docs/STAFF-DATA/013.xlsx
+++ b/docs/STAFF-DATA/013.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="146">
   <si>
     <t>Name</t>
   </si>
@@ -52,7 +52,7 @@
     <t>Professor</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/013/VEC-013-02-027.jpg</t>
+    <t>/static/images/profile_photos/013/VEC-013-02-027.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?user=MI_lw40AAAAJ&amp;hl=en</t>
@@ -82,7 +82,7 @@
     <t>Associate Professor</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/013/VEC-013-03-024.jpg</t>
+    <t>/static/images/profile_photos/013/VEC-013-03-024.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?user=t_iu9IkAAAAJ&amp;hl=en</t>
@@ -112,7 +112,7 @@
     <t>Assistant Professor</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-133.jpg</t>
+    <t>/static/images/profile_photos/013/VEC-013-04-133.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?user=WNV3nmsAAAAJ&amp;hl=en</t>
@@ -133,7 +133,7 @@
     <t xml:space="preserve">Mr. Frank Gladson </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-028.jpg</t>
+    <t>/static/images/profile_photos/013/VEC-013-04-028.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?hl=en&amp;pli=1&amp;authuser=1&amp;user=4vvKUoYAAAAJ</t>
@@ -157,7 +157,7 @@
     <t xml:space="preserve">Dr. R. Geetha </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-004.jpg</t>
+    <t>/static/images/profile_photos/013/VEC-013-04-004.webp</t>
   </si>
   <si>
     <t>https://scholar.google.co.in/citations?user=L3gW2jYAAAAJ&amp;hl=en</t>
@@ -178,7 +178,7 @@
     <t xml:space="preserve">Dr. M. Deepak Kumar </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-001.jpg</t>
+    <t>/static/images/profile_photos/013/VEC-013-04-001.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?user=qSci3AEAAAAJ&amp;hl=en</t>
@@ -199,7 +199,7 @@
     <t xml:space="preserve">Dr. M. Karthick </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-103.jpg</t>
+    <t>/static/images/profile_photos/013/VEC-013-04-103.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?hl=en&amp;user=SgpuYdgAAAAJ&amp;view_op=list_works&amp;authuser=1&amp;sortby=pubdate</t>
@@ -220,7 +220,7 @@
     <t xml:space="preserve">Mr. S. Pradeep Kumar </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-020.jpg</t>
+    <t>/static/images/profile_photos/013/VEC-013-04-020.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?hl=en&amp;user=jrE_JAwAAAAJ&amp;view_op=list_works&amp;gmla=ALUCkoWFGeljBhr8qkQK9UHXUV5aiNb-CPeF1lk53AIcLChccm9-ZNO5Jx0Ba6kFsAkmebiGr8YRlxFP27b4ozq3</t>
@@ -241,7 +241,7 @@
     <t xml:space="preserve">Dr. D. Gopinath </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-006.jpg</t>
+    <t>/static/images/profile_photos/013/VEC-013-04-006.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?user=bD12WR0AAAAJ&amp;hl=en</t>
@@ -268,7 +268,7 @@
     <t xml:space="preserve">Mr. D. Loganathan </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-044.jpg</t>
+    <t>/static/images/profile_photos/013/VEC-013-04-044.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?hl=en&amp;user=e5rg52EAAAAJ</t>
@@ -292,7 +292,7 @@
     <t xml:space="preserve">Mr. D. DineshBabu </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-010.jpg</t>
+    <t>/static/images/profile_photos/013/VEC-013-04-010.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?hl=en&amp;user=BNZQRpIAAAAJ</t>
@@ -307,7 +307,7 @@
     <t xml:space="preserve">Dr. D. Sivasankar </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-084.jpg</t>
+    <t>/static/images/profile_photos/013/VEC-013-04-084.webp</t>
   </si>
   <si>
     <t xml:space="preserve">https://scholar.google.com/citations?user=N30j06EAAAAJ&amp;hl=en </t>
@@ -322,7 +322,7 @@
     <t xml:space="preserve">Mr. S. Shankaranarayanan </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-022.jpg</t>
+    <t>/static/images/profile_photos/013/VEC-013-04-022.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?view_op=list_works&amp;hl=en&amp;authuser=3&amp;user=EF5IZ9QAAAAJ</t>
@@ -337,7 +337,7 @@
     <t xml:space="preserve">Mr. M. Saravanan </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-003.jpg</t>
+    <t>/static/images/profile_photos/013/VEC-013-04-003.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?user=O6ABDp8AAAAJ&amp;hl=en</t>
@@ -367,7 +367,7 @@
     <t>Assistant Professor II</t>
   </si>
   <si>
-    <t>https://drive.google.com/u/0/open?usp=forms_web&amp;id=1Yz2iy4HuSim_mIfwJakZ5suGT_3jsLXS</t>
+    <t>/static/images/profile_photos/013/VEC-013-04-204.webp</t>
   </si>
   <si>
     <t xml:space="preserve">	https://scholar.google.com/citations?user=X2qEj8wAAAAJ&amp;hl=en</t>
@@ -391,7 +391,7 @@
     <t>Assistant Professor III</t>
   </si>
   <si>
-    <t>https://drive.google.com/u/0/open?usp=forms_web&amp;id=1WphphCt7yyXF4bmVIrhxoG92ed_e2Mha</t>
+    <t>/static/images/profile_photos/013/VEC-013-04-202.webp</t>
   </si>
   <si>
     <t>scholar.google.com/citations?hl=en&amp;pli=1&amp;authuser=3&amp;user=k0jG4AAAAJ</t>
@@ -406,7 +406,7 @@
     <t>Mr. M.KARTHICK</t>
   </si>
   <si>
-    <t>https://drive.google.com/u/0/open?usp=forms_web&amp;id=1zhflWBm35sv2732JdwQZN1rZ-bZvH254</t>
+    <t>/static/images/profile_photos/013/VEC-013-04-198.webp</t>
   </si>
   <si>
     <t xml:space="preserve"> https://scholar.google.com/citations?user=WPNgCKEAAAAJ</t>
@@ -424,28 +424,31 @@
     <t>Professor &amp; Head</t>
   </si>
   <si>
+    <t>/static/images/profile_photos/013/VEC-013-01-203.webp</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=PrLAIusAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>LIG-0308-2024</t>
+  </si>
+  <si>
+    <t>ganapathy-sundaram-esakkimuthu-787163204/?originalSubdomain=in</t>
+  </si>
+  <si>
+    <t>VEC-013-01-203</t>
+  </si>
+  <si>
+    <t>Ganapathy Sundaram E</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>ganapathysundaram@velammal.edu.in</t>
+  </si>
+  <si>
     <t>https://drive.google.com/u/0/open?usp=forms_web&amp;id=10mJQLBl0PMMOJTE7wZlVFtMpGlweqH57</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=PrLAIusAAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>LIG-0308-2024</t>
-  </si>
-  <si>
-    <t>ganapathy-sundaram-esakkimuthu-787163204/?originalSubdomain=in</t>
-  </si>
-  <si>
-    <t>VEC-013-01-203</t>
-  </si>
-  <si>
-    <t>Ganapathy Sundaram E</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>ganapathysundaram@velammal.edu.in</t>
   </si>
   <si>
     <t>0000-0002-3284-9485</t>
@@ -456,7 +459,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,6 +469,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -480,7 +489,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -527,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -535,20 +544,26 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -861,25 +876,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="25.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="25.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="7" max="7" style="7" width="72.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="50.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="25.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="119.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="7" max="7" style="8" width="72.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="50.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -1025,7 +1040,7 @@
         <v>35</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="2" t="s">
         <v>36</v>
       </c>
@@ -1175,7 +1190,7 @@
         <v>64</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="2" t="s">
         <v>65</v>
       </c>
@@ -1251,7 +1266,7 @@
       <c r="G10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="5" t="s">
         <v>80</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -1325,7 +1340,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="2" t="s">
         <v>94</v>
       </c>
@@ -1358,7 +1373,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="2" t="s">
         <v>99</v>
       </c>
@@ -1391,7 +1406,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="2" t="s">
         <v>104</v>
       </c>
@@ -1430,7 +1445,7 @@
       <c r="G15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="5" t="s">
         <v>112</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -1484,21 +1499,23 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D17" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="4" t="s">
         <v>65</v>
       </c>
@@ -1531,7 +1548,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="2" t="s">
         <v>127</v>
       </c>
@@ -1564,7 +1581,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="2" t="s">
         <v>132</v>
       </c>
@@ -1599,7 +1616,7 @@
       <c r="G20" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="2" t="s">
         <v>139</v>
       </c>
@@ -1616,7 +1633,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1624,13 +1641,13 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="5"/>
+      <c r="N21" s="6"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -1645,7 +1662,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="H22" s="5"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -1666,7 +1683,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="H23" s="5"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -1679,7 +1696,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1691,20 +1708,20 @@
         <v>142</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="5"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
         <v>143</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>137</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>138</v>
@@ -1714,7 +1731,7 @@
         <v>139</v>
       </c>
       <c r="R24" s="2"/>
-      <c r="S24" s="6">
+      <c r="S24" s="7">
         <v>2</v>
       </c>
     </row>

--- a/docs/STAFF-DATA/013.xlsx
+++ b/docs/STAFF-DATA/013.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="133">
   <si>
     <t>Name</t>
   </si>
@@ -51,9 +46,45 @@
     <t>unique_id</t>
   </si>
   <si>
+    <t xml:space="preserve">Dr. GANAPATHY SUNDARAM E </t>
+  </si>
+  <si>
+    <t>Professor &amp; Head</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/013/VEC-013-01-203.webp</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=PrLAIusAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>LIG-0308-2024</t>
+  </si>
+  <si>
+    <t>ganapathy-sundaram-esakkimuthu-787163204/?originalSubdomain=in</t>
+  </si>
+  <si>
+    <t>VEC-013-01-203</t>
+  </si>
+  <si>
+    <t>Dr. SATISH KUMAR S</t>
+  </si>
+  <si>
+    <t>Professor &amp; Principal</t>
+  </si>
+  <si>
+    <t>/static/images/principal_data/principal_photo.webp</t>
+  </si>
+  <si>
+    <t>Dr. AROCKIA JASWIN M</t>
+  </si>
+  <si>
     <t>Professor</t>
   </si>
   <si>
+    <t>/static/images/profile_photos/013/VEC-013-02-027.webp</t>
+  </si>
+  <si>
     <t>https://scholar.google.com/citations?user=MI_lw40AAAAJ&amp;hl=en</t>
   </si>
   <si>
@@ -75,9 +106,15 @@
     <t>VEC-013-02-027</t>
   </si>
   <si>
+    <t>Dr. SURESH S</t>
+  </si>
+  <si>
     <t>Associate Professor</t>
   </si>
   <si>
+    <t>/static/images/profile_photos/013/VEC-013-03-024.webp</t>
+  </si>
+  <si>
     <t>https://scholar.google.com/citations?user=t_iu9IkAAAAJ&amp;hl=en</t>
   </si>
   <si>
@@ -99,9 +136,33 @@
     <t>VEC-013-03-024</t>
   </si>
   <si>
+    <t>Mr. CHEZHIAN R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assistant Professor </t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/013/VEC-013-04-202.webp</t>
+  </si>
+  <si>
+    <t>scholar.google.com/citations?hl=en&amp;pli=1&amp;authuser=3&amp;user=k0jG4AAAAJ</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/chezhian-r-664275146</t>
+  </si>
+  <si>
+    <t>VEC-013-04-202</t>
+  </si>
+  <si>
+    <t>Dr. CHINNASAMY SUBRAMANIAN S</t>
+  </si>
+  <si>
     <t>Assistant Professor</t>
   </si>
   <si>
+    <t>/static/images/profile_photos/013/VEC-013-04-133.webp</t>
+  </si>
+  <si>
     <t>https://scholar.google.com/citations?user=WNV3nmsAAAAJ&amp;hl=en</t>
   </si>
   <si>
@@ -117,6 +178,12 @@
     <t>VEC-013-04-133</t>
   </si>
   <si>
+    <t xml:space="preserve">Mr. FRANK GLADSON </t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/013/VEC-013-04-028.webp</t>
+  </si>
+  <si>
     <t>https://scholar.google.com/citations?hl=en&amp;pli=1&amp;authuser=1&amp;user=4vvKUoYAAAAJ</t>
   </si>
   <si>
@@ -135,6 +202,138 @@
     <t>VEC-013-04-028</t>
   </si>
   <si>
+    <t>Mr. KARTHICK M</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/013/VEC-013-04-198.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://scholar.google.com/citations?user=WPNgCKEAAAAJ</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/karthick-m-ap-iii-mechanical-86330a282/</t>
+  </si>
+  <si>
+    <t>VEC-013-04-198</t>
+  </si>
+  <si>
+    <t>Mr. PRADEEP KUMAR S</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/013/VEC-013-04-020.webp</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=jrE_JAwAAAAJ&amp;view_op=list_works&amp;gmla=ALUCkoWFGeljBhr8qkQK9UHXUV5aiNb-CPeF1lk53AIcLChccm9-ZNO5Jx0Ba6kFsAkmebiGr8YRlxFP27b4ozq3</t>
+  </si>
+  <si>
+    <t>0009-0008-7010-8136</t>
+  </si>
+  <si>
+    <t>https://www.scopus.com/authid/detail.uri?authorId=56297082000</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/pradeep-kumar-s-629a8494/</t>
+  </si>
+  <si>
+    <t>VEC-013-04-020</t>
+  </si>
+  <si>
+    <t>Dr. DEEPAK KUMAR M</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/013/VEC-013-04-001.webp</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=qSci3AEAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-3884-3778</t>
+  </si>
+  <si>
+    <t>https://www.scopus.com/authid/detail.uri?authorId= 56297082000</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/deepak-kumar-murugan-a20569a4/</t>
+  </si>
+  <si>
+    <t>VEC-013-04-001</t>
+  </si>
+  <si>
+    <t>Mr. ELVIN R.P</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/013/VEC-013-04-204.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	https://scholar.google.com/citations?user=X2qEj8wAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://www.webofscience.com/wos/author/record/GRY-6498-2022</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/mwlite/in/elvin-rp-7839b530</t>
+  </si>
+  <si>
+    <t>VEC-013-04-204</t>
+  </si>
+  <si>
+    <t>Dr. KARTHIKEYAN M</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/013/VEC-013-04-103.webp</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=SgpuYdgAAAAJ&amp;view_op=list_works&amp;authuser=1&amp;sortby=pubdate</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Karthikeyan-Mahalingam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://orcid.org/0009-0007-4504-2852</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/karthikeyan-m-2bbb3864/</t>
+  </si>
+  <si>
+    <t>VEC-013-04-103</t>
+  </si>
+  <si>
+    <t>Mr. DINESHBABU D</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/013/VEC-013-04-010.webp</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=BNZQRpIAAAAJ</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dineshbabu-d-463108128/</t>
+  </si>
+  <si>
+    <t>VEC-013-04-010</t>
+  </si>
+  <si>
+    <t>Dr. SIVASANKAR D</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/013/VEC-013-04-084.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://scholar.google.com/citations?user=N30j06EAAAAJ&amp;hl=en </t>
+  </si>
+  <si>
+    <t>https://in.linkedin.com/in/dr-sivasankar-d-a8833447</t>
+  </si>
+  <si>
+    <t>VEC-013-04-084</t>
+  </si>
+  <si>
+    <t>Dr. GEETHA R</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/013/VEC-013-04-004.webp</t>
+  </si>
+  <si>
     <t>https://scholar.google.co.in/citations?user=L3gW2jYAAAAJ&amp;hl=en</t>
   </si>
   <si>
@@ -150,49 +349,10 @@
     <t>VEC-013-04-004</t>
   </si>
   <si>
-    <t>https://scholar.google.com/citations?user=qSci3AEAAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>https://orcid.org/0000-0003-3884-3778</t>
-  </si>
-  <si>
-    <t>https://www.scopus.com/authid/detail.uri?authorId= 56297082000</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/deepak-kumar-murugan-a20569a4/</t>
-  </si>
-  <si>
-    <t>VEC-013-04-001</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?hl=en&amp;user=SgpuYdgAAAAJ&amp;view_op=list_works&amp;authuser=1&amp;sortby=pubdate</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/Karthikeyan-Mahalingam</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://orcid.org/0009-0007-4504-2852</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/karthikeyan-m-2bbb3864/</t>
-  </si>
-  <si>
-    <t>VEC-013-04-103</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?hl=en&amp;user=jrE_JAwAAAAJ&amp;view_op=list_works&amp;gmla=ALUCkoWFGeljBhr8qkQK9UHXUV5aiNb-CPeF1lk53AIcLChccm9-ZNO5Jx0Ba6kFsAkmebiGr8YRlxFP27b4ozq3</t>
-  </si>
-  <si>
-    <t>0009-0008-7010-8136</t>
-  </si>
-  <si>
-    <t>https://www.scopus.com/authid/detail.uri?authorId=56297082000</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/pradeep-kumar-s-629a8494/</t>
-  </si>
-  <si>
-    <t>VEC-013-04-020</t>
+    <t>Mr. LOGANATHAN D</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/013/VEC-013-04-044.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?hl=en&amp;user=e5rg52EAAAAJ</t>
@@ -213,22 +373,37 @@
     <t>VEC-013-04-044</t>
   </si>
   <si>
-    <t>https://scholar.google.com/citations?hl=en&amp;user=BNZQRpIAAAAJ</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/dineshbabu-d-463108128/</t>
-  </si>
-  <si>
-    <t>VEC-013-04-010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://scholar.google.com/citations?user=N30j06EAAAAJ&amp;hl=en </t>
-  </si>
-  <si>
-    <t>https://in.linkedin.com/in/dr-sivasankar-d-a8833447</t>
-  </si>
-  <si>
-    <t>VEC-013-04-084</t>
+    <t>Mr. SARAVANAN M</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/013/VEC-013-04-003.webp</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=O6ABDp8AAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Saravanan-Mathi</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-2384-3361</t>
+  </si>
+  <si>
+    <t>https://www.webofscience.com/wos/author/record/LIC-4857-2024</t>
+  </si>
+  <si>
+    <t>https://www.scopus.com/authid/detail.uri?authorId=57669626800</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/saravanan-mathialagan-769901122</t>
+  </si>
+  <si>
+    <t>VEC-013-04-003</t>
+  </si>
+  <si>
+    <t>Mr. SHANKARANARAYANAN S</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/013/VEC-013-04-022.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?view_op=list_works&amp;hl=en&amp;authuser=3&amp;user=EF5IZ9QAAAAJ</t>
@@ -238,196 +413,14 @@
   </si>
   <si>
     <t>VEC-013-04-022</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=O6ABDp8AAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/Saravanan-Mathi</t>
-  </si>
-  <si>
-    <t>https://orcid.org/0000-0003-2384-3361</t>
-  </si>
-  <si>
-    <t>https://www.webofscience.com/wos/author/record/LIC-4857-2024</t>
-  </si>
-  <si>
-    <t>https://www.scopus.com/authid/detail.uri?authorId=57669626800</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/saravanan-mathialagan-769901122</t>
-  </si>
-  <si>
-    <t>VEC-013-04-003</t>
-  </si>
-  <si>
-    <t>Assistant Professor II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	https://scholar.google.com/citations?user=X2qEj8wAAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>https://www.webofscience.com/wos/author/record/GRY-6498-2022</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/mwlite/in/elvin-rp-7839b530</t>
-  </si>
-  <si>
-    <t>VEC-013-04-204</t>
-  </si>
-  <si>
-    <t>Assistant Professor III</t>
-  </si>
-  <si>
-    <t>scholar.google.com/citations?hl=en&amp;pli=1&amp;authuser=3&amp;user=k0jG4AAAAJ</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/chezhian-r-664275146</t>
-  </si>
-  <si>
-    <t>VEC-013-04-202</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://scholar.google.com/citations?user=WPNgCKEAAAAJ</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/karthick-m-ap-iii-mechanical-86330a282/</t>
-  </si>
-  <si>
-    <t>VEC-013-04-198</t>
-  </si>
-  <si>
-    <t>Professor &amp; Head</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=PrLAIusAAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>LIG-0308-2024</t>
-  </si>
-  <si>
-    <t>ganapathy-sundaram-esakkimuthu-787163204/?originalSubdomain=in</t>
-  </si>
-  <si>
-    <t>VEC-013-01-203</t>
-  </si>
-  <si>
-    <t>Dr. AROCKIA JASWIN M</t>
-  </si>
-  <si>
-    <t>Dr. SURESH S</t>
-  </si>
-  <si>
-    <t>Dr. CHINNASAMY SUBRAMANIAN S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. FRANK GLADSON </t>
-  </si>
-  <si>
-    <t>Dr. GEETHA R</t>
-  </si>
-  <si>
-    <t>Dr. DEEPAK KUMAR M</t>
-  </si>
-  <si>
-    <t>Mr. PRADEEP KUMAR S</t>
-  </si>
-  <si>
-    <t>Mr. LOGANATHAN D</t>
-  </si>
-  <si>
-    <t>Mr. DINESHBABU D</t>
-  </si>
-  <si>
-    <t>Dr. SIVASANKAR D</t>
-  </si>
-  <si>
-    <t>Mr. SHANKARANARAYANAN S</t>
-  </si>
-  <si>
-    <t>Mr. SARAVANAN M</t>
-  </si>
-  <si>
-    <t>Mr. ELVIN R.P</t>
-  </si>
-  <si>
-    <t>Mr. CHEZHIAN R</t>
-  </si>
-  <si>
-    <t>Mr. KARTHICK M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. GANAPATHY SUNDARAM E </t>
-  </si>
-  <si>
-    <t>Dr. SATISH KUMAR S</t>
-  </si>
-  <si>
-    <t>Professor &amp; Principal</t>
-  </si>
-  <si>
-    <t>Dr. KARTHIKEYAN M</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-02-027.webp</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-03-024.webp</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-133.webp</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-028.webp</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-020.webp</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-001.webp</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-103.webp</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-010.webp</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-084.webp</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-004.webp</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-044.webp</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-003.webp</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-022.webp</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-01-203.webp</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-01-202.webp</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-198.webp</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-204.webp</t>
-  </si>
-  <si>
-    <t>/static/images/principal_data/principal_photo.webp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +430,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -492,34 +491,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -530,10 +533,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -571,71 +574,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -663,7 +666,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -686,11 +689,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -699,13 +702,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -715,7 +718,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -724,7 +727,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -733,7 +736,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -741,10 +744,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -815,25 +818,32 @@
   </sheetPr>
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="50.44140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5546875" style="5" hidden="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="72.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="18" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="6" width="45.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="50.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="7" max="7" style="6" width="72.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="50.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -874,30 +884,30 @@
       <c r="R1" s="2"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -909,47 +919,63 @@
       <c r="R2" s="2"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -961,36 +987,36 @@
       <c r="R4" s="2"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>23</v>
+        <v>35</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -1002,28 +1028,28 @@
       <c r="R5" s="2"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1035,32 +1061,32 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="2" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -1072,34 +1098,34 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="2" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="4" t="s">
-        <v>35</v>
+      <c r="H8" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1111,28 +1137,28 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="2" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1144,32 +1170,32 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="2" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="4" t="s">
-        <v>55</v>
+      <c r="H10" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1181,32 +1207,32 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="4" t="s">
-        <v>45</v>
+      <c r="H11" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1218,30 +1244,30 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
-        <v>83</v>
+      <c r="G12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1253,32 +1279,32 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1290,28 +1316,28 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1323,28 +1349,28 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1356,32 +1382,32 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="4" t="s">
-        <v>40</v>
+      <c r="H16" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1393,34 +1419,34 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>61</v>
+        <v>114</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1432,36 +1458,36 @@
       <c r="R17" s="2"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1473,28 +1499,28 @@
       <c r="R18" s="2"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="2" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1506,7 +1532,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>

--- a/docs/STAFF-DATA/013.xlsx
+++ b/docs/STAFF-DATA/013.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DA3B1D-DFE7-4BD4-83A9-9390A31BA709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="147">
   <si>
     <t>Name</t>
   </si>
@@ -413,13 +419,54 @@
   </si>
   <si>
     <t>VEC-013-04-022</t>
+  </si>
+  <si>
+    <t>PRASAD J</t>
+  </si>
+  <si>
+    <t>ANANDAN A</t>
+  </si>
+  <si>
+    <t>ARUMUGAM B</t>
+  </si>
+  <si>
+    <t>Lab Instructor</t>
+  </si>
+  <si>
+    <t>Lab Assistant</t>
+  </si>
+  <si>
+    <t>VEC-013-05-012</t>
+  </si>
+  <si>
+    <t>VEC-013-05-013</t>
+  </si>
+  <si>
+    <t>VEC-013-05-014</t>
+  </si>
+  <si>
+    <t>VEC-013-05-015</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/013/VEC-013-05-012.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/013/VEC-013-05-013.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/013/VEC-013-05-015.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/013/VEC-013-05-014.webp</t>
+  </si>
+  <si>
+    <t>CHANDRAMOULLI P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -491,38 +538,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -533,10 +574,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -574,71 +615,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -666,7 +707,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -689,11 +730,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -702,13 +743,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -718,7 +759,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -727,7 +768,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -736,7 +777,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -744,10 +785,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -812,38 +853,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="6" width="45.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="50.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="7" max="7" style="6" width="72.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="50.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5546875" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="18" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -874,684 +908,523 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2" t="s">
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2" t="s">
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="4" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="2" t="s">
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2" t="s">
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
+      <c r="I6" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2" t="s">
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
+      <c r="I7" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="2" t="s">
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2" t="s">
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
+      <c r="I9" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="2" t="s">
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="2" t="s">
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" t="s">
         <v>80</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="2" t="s">
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5" t="s">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" t="s">
         <v>86</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="2" t="s">
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
+      <c r="I13" t="s">
         <v>92</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" t="s">
         <v>93</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="2" t="s">
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
+      <c r="I14" t="s">
         <v>97</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" t="s">
         <v>98</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="2" t="s">
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
+      <c r="I15" t="s">
         <v>102</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" t="s">
         <v>103</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="2" t="s">
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" t="s">
         <v>109</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="2" t="s">
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s">
         <v>114</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" t="s">
         <v>117</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="2" t="s">
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" t="s">
         <v>123</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" t="s">
         <v>125</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" t="s">
         <v>126</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" t="s">
         <v>127</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="2" t="s">
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>130</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2" t="s">
+      <c r="I19" t="s">
         <v>131</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" t="s">
         <v>132</v>
       </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="3"/>
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
+      <c r="J20" t="s">
+        <v>138</v>
+      </c>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" t="s">
+        <v>145</v>
+      </c>
+      <c r="J22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" t="s">
+        <v>144</v>
+      </c>
+      <c r="J23" t="s">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/STAFF-DATA/013.xlsx
+++ b/docs/STAFF-DATA/013.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DA3B1D-DFE7-4BD4-83A9-9390A31BA709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="148">
   <si>
     <t>Name</t>
   </si>
@@ -82,6 +76,9 @@
     <t>/static/images/principal_data/principal_photo.webp</t>
   </si>
   <si>
+    <t>VEC-013-02-200</t>
+  </si>
+  <si>
     <t>Dr. AROCKIA JASWIN M</t>
   </si>
   <si>
@@ -424,49 +421,50 @@
     <t>PRASAD J</t>
   </si>
   <si>
+    <t>Lab Instructor</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/013/VEC-013-05-012.webp</t>
+  </si>
+  <si>
+    <t>VEC-013-05-012</t>
+  </si>
+  <si>
+    <t>CHANDRAMOULLI P</t>
+  </si>
+  <si>
+    <t>Lab Assistant</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/013/VEC-013-05-013.webp</t>
+  </si>
+  <si>
+    <t>VEC-013-05-013</t>
+  </si>
+  <si>
     <t>ANANDAN A</t>
   </si>
   <si>
+    <t>/static/images/profile_photos/013/VEC-013-05-014.webp</t>
+  </si>
+  <si>
+    <t>VEC-013-05-014</t>
+  </si>
+  <si>
     <t>ARUMUGAM B</t>
   </si>
   <si>
-    <t>Lab Instructor</t>
-  </si>
-  <si>
-    <t>Lab Assistant</t>
-  </si>
-  <si>
-    <t>VEC-013-05-012</t>
-  </si>
-  <si>
-    <t>VEC-013-05-013</t>
-  </si>
-  <si>
-    <t>VEC-013-05-014</t>
+    <t>/static/images/profile_photos/013/VEC-013-05-015.webp</t>
   </si>
   <si>
     <t>VEC-013-05-015</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-05-012.webp</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-05-013.webp</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-05-015.webp</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-05-014.webp</t>
-  </si>
-  <si>
-    <t>CHANDRAMOULLI P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -484,7 +482,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -538,32 +536,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -574,10 +578,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -615,71 +619,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -707,7 +711,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -730,11 +734,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -743,13 +747,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -759,7 +763,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -768,7 +772,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -777,7 +781,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -785,10 +789,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -853,31 +857,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5546875" hidden="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="72.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="18" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="6" width="45.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="50.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="7" max="7" style="6" width="72.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="50.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,523 +919,781 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="2"/>
-    </row>
-    <row r="2" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="2"/>
-    </row>
-    <row r="3" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="J4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S5" s="2"/>
-    </row>
-    <row r="6" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="J5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B6" t="s">
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I6" t="s">
+      <c r="D6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J6" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="S6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="J6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B7" t="s">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I7" t="s">
+      <c r="F7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J7" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="J7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I8" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J8" t="s">
+      <c r="I8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="J8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I9" t="s">
+      <c r="D9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J9" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="J9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F10" t="s">
+      <c r="D10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I10" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J10" t="s">
+      <c r="I10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="J10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F11" t="s">
+      <c r="D11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I11" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J11" t="s">
+      <c r="I11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="J11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J12" t="s">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="S12" s="2"/>
-    </row>
-    <row r="13" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="J12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D13" t="s">
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I13" t="s">
+      <c r="F13" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J13" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="J13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I14" t="s">
+      <c r="D14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J14" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="J14" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I15" t="s">
+      <c r="D15" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J15" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="S15" s="2"/>
-    </row>
-    <row r="16" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="J15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D16" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I16" t="s">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="J16" t="s">
+      <c r="I16" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="S16" s="2"/>
-    </row>
-    <row r="17" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="J16" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F17" t="s">
+      <c r="D17" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="G17" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="I17" t="s">
+      <c r="H17" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="J17" t="s">
+      <c r="I17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="S17" s="2"/>
-    </row>
-    <row r="18" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="J17" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D18" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E18" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G18" t="s">
+      <c r="F18" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G18" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="I18" t="s">
+      <c r="H18" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="J18" t="s">
+      <c r="I18" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="S18" s="2"/>
-    </row>
-    <row r="19" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="J18" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D19" t="s">
+      <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I19" t="s">
+      <c r="D19" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="J19" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="S19" s="2"/>
-    </row>
-    <row r="20" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="J19" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B20" t="s">
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J20" t="s">
-        <v>138</v>
-      </c>
-      <c r="S20" s="2"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B21" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" t="s">
-        <v>143</v>
-      </c>
-      <c r="J21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" t="s">
-        <v>145</v>
-      </c>
-      <c r="J22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" t="s">
-        <v>144</v>
-      </c>
-      <c r="J23" t="s">
-        <v>141</v>
-      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/STAFF-DATA/013.xlsx
+++ b/docs/STAFF-DATA/013.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15418400-0D77-4CD1-9245-26F17A27EBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -73,9 +79,6 @@
     <t>Professor &amp; Principal</t>
   </si>
   <si>
-    <t>/static/images/principal_data/principal_photo.webp</t>
-  </si>
-  <si>
     <t>VEC-013-02-200</t>
   </si>
   <si>
@@ -418,9 +421,6 @@
     <t>VEC-013-04-022</t>
   </si>
   <si>
-    <t>PRASAD J</t>
-  </si>
-  <si>
     <t>Lab Instructor</t>
   </si>
   <si>
@@ -430,9 +430,6 @@
     <t>VEC-013-05-012</t>
   </si>
   <si>
-    <t>CHANDRAMOULLI P</t>
-  </si>
-  <si>
     <t>Lab Assistant</t>
   </si>
   <si>
@@ -442,29 +439,37 @@
     <t>VEC-013-05-013</t>
   </si>
   <si>
-    <t>ANANDAN A</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/013/VEC-013-05-014.webp</t>
   </si>
   <si>
     <t>VEC-013-05-014</t>
   </si>
   <si>
-    <t>ARUMUGAM B</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/013/VEC-013-05-015.webp</t>
   </si>
   <si>
     <t>VEC-013-05-015</t>
+  </si>
+  <si>
+    <t>/static/images/principal_data/VEC-013-02-200.webp</t>
+  </si>
+  <si>
+    <t>Mr. PRASAD J</t>
+  </si>
+  <si>
+    <t>Mr. CHANDRAMOULLI P</t>
+  </si>
+  <si>
+    <t>Mr. ANANDAN A</t>
+  </si>
+  <si>
+    <t>Mr. ARUMUGAM B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -536,38 +541,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -578,10 +575,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -619,71 +616,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -711,7 +708,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -734,11 +731,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -747,13 +744,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -763,7 +760,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -772,7 +769,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -781,7 +778,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -789,10 +786,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -857,38 +854,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="6" width="45.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="50.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="7" max="7" style="6" width="72.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="50.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5546875" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="18" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -919,781 +909,526 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="2" t="s">
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2" t="s">
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="2" t="s">
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="2" t="s">
+      <c r="B5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="2" t="s">
+      <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="I6" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
+      <c r="J6" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="2" t="s">
+      <c r="B7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="I7" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
+      <c r="J7" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="2" t="s">
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="5" t="s">
+      <c r="I8" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="2" t="s">
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="I9" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
+      <c r="J9" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="2" t="s">
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="F10" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="5" t="s">
+      <c r="I10" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>74</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="2" t="s">
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="F11" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="5" t="s">
+      <c r="I11" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>81</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="2" t="s">
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="G12" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5" t="s">
+      <c r="J12" t="s">
         <v>86</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="2" t="s">
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="I13" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
+      <c r="J13" t="s">
         <v>93</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>94</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="2" t="s">
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="I14" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
+      <c r="J14" t="s">
         <v>98</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>99</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="2" t="s">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="I15" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
+      <c r="J15" t="s">
         <v>103</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>104</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="2" t="s">
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="H16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="5" t="s">
+      <c r="I16" t="s">
         <v>109</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" t="s">
         <v>110</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="2" t="s">
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="F17" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" t="s">
         <v>118</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="2" t="s">
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" t="s">
         <v>124</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" t="s">
         <v>125</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" t="s">
         <v>126</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" t="s">
         <v>127</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="2" t="s">
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="I19" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2" t="s">
+      <c r="J19" t="s">
         <v>132</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" t="s">
         <v>133</v>
       </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="2" t="s">
+      <c r="C20" t="s">
         <v>134</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="J20" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2" t="s">
+      <c r="C21" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="2" t="s">
+      <c r="J21" t="s">
         <v>138</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="J22" t="s">
         <v>140</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2" t="s">
+    </row>
+    <row r="23" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" t="s">
         <v>141</v>
       </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="2" t="s">
+      <c r="J23" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/STAFF-DATA/013.xlsx
+++ b/docs/STAFF-DATA/013.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15418400-0D77-4CD1-9245-26F17A27EBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25525BD6-16AD-49BB-AED5-1C14DE13C4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,9 +451,6 @@
     <t>VEC-013-05-015</t>
   </si>
   <si>
-    <t>/static/images/principal_data/VEC-013-02-200.webp</t>
-  </si>
-  <si>
     <t>Mr. PRASAD J</t>
   </si>
   <si>
@@ -464,6 +461,9 @@
   </si>
   <si>
     <t>Mr. ARUMUGAM B</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/013/VEC-013-02-200.webp</t>
   </si>
 </sst>
 </file>
@@ -861,7 +861,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -943,7 +943,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="20" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
         <v>133</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="21" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s">
         <v>136</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="22" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B22" t="s">
         <v>133</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="23" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B23" t="s">
         <v>133</v>

--- a/docs/STAFF-DATA/013.xlsx
+++ b/docs/STAFF-DATA/013.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25525BD6-16AD-49BB-AED5-1C14DE13C4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="146">
   <si>
     <t>Name</t>
   </si>
@@ -79,6 +73,9 @@
     <t>Professor &amp; Principal</t>
   </si>
   <si>
+    <t>/static/images/profile_photos/013/VEC-013-02-200.webp</t>
+  </si>
+  <si>
     <t>VEC-013-02-200</t>
   </si>
   <si>
@@ -142,6 +139,69 @@
     <t>VEC-013-03-024</t>
   </si>
   <si>
+    <t>Dr. KARTHICK M</t>
+  </si>
+  <si>
+    <t>Assistant Professor</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/013/VEC-013-04-198.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://scholar.google.com/citations?user=WPNgCKEAAAAJ</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/karthick-m-ap-iii-mechanical-86330a282/</t>
+  </si>
+  <si>
+    <t>VEC-013-04-198</t>
+  </si>
+  <si>
+    <t>Dr. CHINNASAMY SUBRAMANIAN S</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/013/VEC-013-04-133.webp</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=WNV3nmsAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Chinnasamy-Subramanian-S</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-2447-5807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.linkedin.com/in/chinnasamy-s-50117425?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app </t>
+  </si>
+  <si>
+    <t>VEC-013-04-133</t>
+  </si>
+  <si>
+    <t>Mr. FRANK GLADSON T S</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/013/VEC-013-04-028.webp</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;pli=1&amp;authuser=1&amp;user=4vvKUoYAAAAJ</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Frank-Gladson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://orcid.org/my-orcid?orcid=0000-0001-9460-3686 </t>
+  </si>
+  <si>
+    <t>https://www.scopus.com/authid/detail.uri?authorId=57191980691</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/news/story/iphone-16-launches-without-key-ai-6150772/</t>
+  </si>
+  <si>
+    <t>VEC-013-04-028</t>
+  </si>
+  <si>
     <t>Mr. CHEZHIAN R</t>
   </si>
   <si>
@@ -160,70 +220,70 @@
     <t>VEC-013-04-202</t>
   </si>
   <si>
-    <t>Dr. CHINNASAMY SUBRAMANIAN S</t>
-  </si>
-  <si>
-    <t>Assistant Professor</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-133.webp</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=WNV3nmsAAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/Chinnasamy-Subramanian-S</t>
-  </si>
-  <si>
-    <t>https://orcid.org/0000-0002-2447-5807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.linkedin.com/in/chinnasamy-s-50117425?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app </t>
-  </si>
-  <si>
-    <t>VEC-013-04-133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. FRANK GLADSON </t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-028.webp</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?hl=en&amp;pli=1&amp;authuser=1&amp;user=4vvKUoYAAAAJ</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/Frank-Gladson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://orcid.org/my-orcid?orcid=0000-0001-9460-3686 </t>
-  </si>
-  <si>
-    <t>https://www.scopus.com/authid/detail.uri?authorId=57191980691</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/news/story/iphone-16-launches-without-key-ai-6150772/</t>
-  </si>
-  <si>
-    <t>VEC-013-04-028</t>
-  </si>
-  <si>
-    <t>Mr. KARTHICK M</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-198.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://scholar.google.com/citations?user=WPNgCKEAAAAJ</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/karthick-m-ap-iii-mechanical-86330a282/</t>
-  </si>
-  <si>
-    <t>VEC-013-04-198</t>
-  </si>
-  <si>
-    <t>Mr. PRADEEP KUMAR S</t>
+    <t>Dr. GEETHA R</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/013/VEC-013-04-004.webp</t>
+  </si>
+  <si>
+    <t>https://scholar.google.co.in/citations?user=L3gW2jYAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Geetha-Rajamani</t>
+  </si>
+  <si>
+    <t>https://www.scopus.com/authid/detail.uri?authorId=57210626865</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/geetha-rajamani-9ba9972a8?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
+  </si>
+  <si>
+    <t>VEC-013-04-004</t>
+  </si>
+  <si>
+    <t>Dr. DEEPAK KUMAR M</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/013/VEC-013-04-001.webp</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=qSci3AEAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-3884-3778</t>
+  </si>
+  <si>
+    <t>https://www.scopus.com/authid/detail.uri?authorId= 56297082000</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/deepak-kumar-murugan-a20569a4/</t>
+  </si>
+  <si>
+    <t>VEC-013-04-001</t>
+  </si>
+  <si>
+    <t>Mr. KARTHIKEYAN M</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/013/VEC-013-04-103.webp</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=SgpuYdgAAAAJ&amp;view_op=list_works&amp;authuser=1&amp;sortby=pubdate</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Karthikeyan-Mahalingam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://orcid.org/0009-0007-4504-2852</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/karthikeyan-m-2bbb3864/</t>
+  </si>
+  <si>
+    <t>VEC-013-04-103</t>
+  </si>
+  <si>
+    <t>Dr. PRADEEP KUMAR S</t>
   </si>
   <si>
     <t>/static/images/profile_photos/013/VEC-013-04-020.webp</t>
@@ -244,28 +304,31 @@
     <t>VEC-013-04-020</t>
   </si>
   <si>
-    <t>Dr. DEEPAK KUMAR M</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-001.webp</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=qSci3AEAAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>https://orcid.org/0000-0003-3884-3778</t>
-  </si>
-  <si>
-    <t>https://www.scopus.com/authid/detail.uri?authorId= 56297082000</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/deepak-kumar-murugan-a20569a4/</t>
-  </si>
-  <si>
-    <t>VEC-013-04-001</t>
-  </si>
-  <si>
-    <t>Mr. ELVIN R.P</t>
+    <t>Dr. LOGANATHAN D</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/013/VEC-013-04-044.webp</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=e5rg52EAAAAJ</t>
+  </si>
+  <si>
+    <t>0000-0001-6365-3162</t>
+  </si>
+  <si>
+    <t>https://www.webofscience.com/wos/author/record/IUM-9440-2023</t>
+  </si>
+  <si>
+    <t>https://www.scopus.com/authid/detail.uri?authorId=56319193800</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/loganathan-duraiswamy-6b193161</t>
+  </si>
+  <si>
+    <t>VEC-013-04-044</t>
+  </si>
+  <si>
+    <t>Mr. ELVIN R P</t>
   </si>
   <si>
     <t>/static/images/profile_photos/013/VEC-013-04-204.webp</t>
@@ -283,40 +346,13 @@
     <t>VEC-013-04-204</t>
   </si>
   <si>
-    <t>Dr. KARTHIKEYAN M</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-103.webp</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?hl=en&amp;user=SgpuYdgAAAAJ&amp;view_op=list_works&amp;authuser=1&amp;sortby=pubdate</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/Karthikeyan-Mahalingam</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://orcid.org/0009-0007-4504-2852</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/karthikeyan-m-2bbb3864/</t>
-  </si>
-  <si>
-    <t>VEC-013-04-103</t>
-  </si>
-  <si>
-    <t>Mr. DINESHBABU D</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-010.webp</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?hl=en&amp;user=BNZQRpIAAAAJ</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/dineshbabu-d-463108128/</t>
-  </si>
-  <si>
-    <t>VEC-013-04-010</t>
+    <t>Mr. JOHN LEONARD A</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/013/VEC-013-04-680.webp</t>
+  </si>
+  <si>
+    <t>VEC-013-04-680</t>
   </si>
   <si>
     <t>Dr. SIVASANKAR D</t>
@@ -334,49 +370,19 @@
     <t>VEC-013-04-084</t>
   </si>
   <si>
-    <t>Dr. GEETHA R</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-004.webp</t>
-  </si>
-  <si>
-    <t>https://scholar.google.co.in/citations?user=L3gW2jYAAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/Geetha-Rajamani</t>
-  </si>
-  <si>
-    <t>https://www.scopus.com/authid/detail.uri?authorId=57210626865</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/geetha-rajamani-9ba9972a8?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
-  </si>
-  <si>
-    <t>VEC-013-04-004</t>
-  </si>
-  <si>
-    <t>Mr. LOGANATHAN D</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-044.webp</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?hl=en&amp;user=e5rg52EAAAAJ</t>
-  </si>
-  <si>
-    <t>0000-0001-6365-3162</t>
-  </si>
-  <si>
-    <t>https://www.webofscience.com/wos/author/record/IUM-9440-2023</t>
-  </si>
-  <si>
-    <t>https://www.scopus.com/authid/detail.uri?authorId=56319193800</t>
-  </si>
-  <si>
-    <t>linkedin.com/in/loganathan-duraiswamy-6b193161</t>
-  </si>
-  <si>
-    <t>VEC-013-04-044</t>
+    <t>Mr. SHANKARANARAYANAN S</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/013/VEC-013-04-022.webp</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?view_op=list_works&amp;hl=en&amp;authuser=3&amp;user=EF5IZ9QAAAAJ</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shankaranarayanan-556618138</t>
+  </si>
+  <si>
+    <t>VEC-013-04-022</t>
   </si>
   <si>
     <t>Mr. SARAVANAN M</t>
@@ -406,19 +412,7 @@
     <t>VEC-013-04-003</t>
   </si>
   <si>
-    <t>Mr. SHANKARANARAYANAN S</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-04-022.webp</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?view_op=list_works&amp;hl=en&amp;authuser=3&amp;user=EF5IZ9QAAAAJ</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/shankaranarayanan-556618138</t>
-  </si>
-  <si>
-    <t>VEC-013-04-022</t>
+    <t>Mr. PRASAD J</t>
   </si>
   <si>
     <t>Lab Instructor</t>
@@ -430,6 +424,9 @@
     <t>VEC-013-05-012</t>
   </si>
   <si>
+    <t>Mr. CHANDRAMOULLI P</t>
+  </si>
+  <si>
     <t>Lab Assistant</t>
   </si>
   <si>
@@ -439,37 +436,29 @@
     <t>VEC-013-05-013</t>
   </si>
   <si>
+    <t>Mr. ANANDAN A</t>
+  </si>
+  <si>
     <t>/static/images/profile_photos/013/VEC-013-05-014.webp</t>
   </si>
   <si>
     <t>VEC-013-05-014</t>
   </si>
   <si>
+    <t>Mr. ARUMUGAM B</t>
+  </si>
+  <si>
     <t>/static/images/profile_photos/013/VEC-013-05-015.webp</t>
   </si>
   <si>
     <t>VEC-013-05-015</t>
-  </si>
-  <si>
-    <t>Mr. PRASAD J</t>
-  </si>
-  <si>
-    <t>Mr. CHANDRAMOULLI P</t>
-  </si>
-  <si>
-    <t>Mr. ANANDAN A</t>
-  </si>
-  <si>
-    <t>Mr. ARUMUGAM B</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/013/VEC-013-02-200.webp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -541,30 +530,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -575,10 +572,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -616,71 +613,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -708,7 +705,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -731,11 +728,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -744,13 +741,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -760,7 +757,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -769,7 +766,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -778,7 +775,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -786,10 +783,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -854,31 +851,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5546875" hidden="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="72.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="18" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="6" width="45.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="50.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="7" max="7" style="6" width="72.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="50.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,526 +913,777 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="2"/>
-    </row>
-    <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="2"/>
-    </row>
-    <row r="3" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>147</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="J4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S5" s="2"/>
-    </row>
-    <row r="6" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="J5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B6" t="s">
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I6" t="s">
+      <c r="D6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J6" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="S6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="J6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B7" t="s">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I7" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I9" t="s">
+      <c r="D9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J9" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="J9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F10" t="s">
+      <c r="D10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I10" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J10" t="s">
+      <c r="I10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="J10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F11" t="s">
+      <c r="D11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I11" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J11" t="s">
+      <c r="I11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="J11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J12" t="s">
+      <c r="F12" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="S12" s="2"/>
-    </row>
-    <row r="13" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="J12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D13" t="s">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E13" t="s">
+      <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F13" t="s">
+      <c r="D13" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I13" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J13" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="I13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="J13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D14" t="s">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I14" t="s">
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J14" t="s">
+      <c r="D14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="G14" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D15" t="s">
+      <c r="H14" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I14" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="S15" s="2"/>
-    </row>
-    <row r="16" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D15" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H15" s="5"/>
+      <c r="I15" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J15" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="S16" s="2"/>
-    </row>
-    <row r="17" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D17" t="s">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F17" t="s">
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="S17" s="2"/>
-    </row>
-    <row r="18" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E18" t="s">
+      <c r="J18" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F18" t="s">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G18" t="s">
+      <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H18" t="s">
+      <c r="D19" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="I18" t="s">
+      <c r="E19" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="J18" t="s">
+      <c r="F19" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="S18" s="2"/>
-    </row>
-    <row r="19" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="G19" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="H19" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D19" t="s">
+      <c r="I19" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="S19" s="2"/>
-    </row>
-    <row r="20" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C20" t="s">
-        <v>134</v>
-      </c>
-      <c r="J20" t="s">
-        <v>135</v>
-      </c>
-      <c r="S20" s="2"/>
-    </row>
-    <row r="21" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="C23" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" t="s">
-        <v>137</v>
-      </c>
-      <c r="J21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B22" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" t="s">
-        <v>139</v>
-      </c>
-      <c r="J22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" t="s">
-        <v>141</v>
-      </c>
-      <c r="J23" t="s">
-        <v>142</v>
-      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/STAFF-DATA/013.xlsx
+++ b/docs/STAFF-DATA/013.xlsx
@@ -459,7 +459,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,6 +477,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -541,10 +547,10 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
